--- a/ONCHO/Impact Assessments/Benin/stop/bj_oncho_stop_6_202306_usage_facility.xlsx
+++ b/ONCHO/Impact Assessments/Benin/stop/bj_oncho_stop_6_202306_usage_facility.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Benin\stop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE47EADC-E5EA-4876-B28A-363911BD158C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E56CB0-CD20-4E4E-80F5-8AA5D05D4112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -116,9 +116,6 @@
     <t>bj_oncho_stop_6_202306_usage_facility</t>
   </si>
   <si>
-    <t>(2023 Juillet) ONCHO Stop TDM - 5. Questionnaire sur la facilité d'utilisation</t>
-  </si>
-  <si>
     <t>Appréciation globale</t>
   </si>
   <si>
@@ -417,6 +414,9 @@
   </si>
   <si>
     <t>Tout à fait d.accord</t>
+  </si>
+  <si>
+    <t>(2023 Juillet) ONCHO Stop TDM - 6. Questionnaire sur la facilité d'utilisation</t>
   </si>
 </sst>
 </file>
@@ -991,13 +991,13 @@
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="13"/>
@@ -1013,13 +1013,13 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="13"/>
@@ -1035,13 +1035,13 @@
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="15"/>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="26"/>
@@ -1077,13 +1077,13 @@
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="C6" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="15"/>
@@ -1099,13 +1099,13 @@
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="13"/>
@@ -1121,13 +1121,13 @@
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="15"/>
@@ -1143,13 +1143,13 @@
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="15"/>
@@ -1168,10 +1168,10 @@
         <v>17</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="13"/>
@@ -1190,10 +1190,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>66</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>67</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="13"/>
@@ -1208,13 +1208,13 @@
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>69</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="26"/>
@@ -1228,13 +1228,13 @@
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="13"/>
@@ -1250,13 +1250,13 @@
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="13"/>
@@ -1271,13 +1271,13 @@
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="13"/>
@@ -1292,13 +1292,13 @@
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="13"/>
@@ -1314,13 +1314,13 @@
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="26"/>
@@ -1334,13 +1334,13 @@
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="9"/>
@@ -1356,13 +1356,13 @@
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="9"/>
@@ -1378,13 +1378,13 @@
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="9"/>
@@ -1400,13 +1400,13 @@
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="9"/>
@@ -1422,13 +1422,13 @@
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="9"/>
@@ -1444,13 +1444,13 @@
     </row>
     <row r="23" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="9"/>
@@ -1466,13 +1466,13 @@
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
@@ -1486,13 +1486,13 @@
     </row>
     <row r="25" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="9"/>
@@ -1508,13 +1508,13 @@
     </row>
     <row r="26" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="9"/>
@@ -1530,13 +1530,13 @@
     </row>
     <row r="27" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="9"/>
@@ -1552,13 +1552,13 @@
     </row>
     <row r="28" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="9"/>
@@ -1574,13 +1574,13 @@
     </row>
     <row r="29" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="9"/>
@@ -1596,13 +1596,13 @@
     </row>
     <row r="30" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="9"/>
@@ -1618,13 +1618,13 @@
     </row>
     <row r="31" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="26"/>
@@ -1638,13 +1638,13 @@
     </row>
     <row r="32" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="9"/>
@@ -1660,13 +1660,13 @@
     </row>
     <row r="33" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="9"/>
@@ -1682,13 +1682,13 @@
     </row>
     <row r="34" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="9"/>
@@ -1704,13 +1704,13 @@
     </row>
     <row r="35" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="9"/>
@@ -1726,13 +1726,13 @@
     </row>
     <row r="36" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="9"/>
@@ -1748,13 +1748,13 @@
     </row>
     <row r="37" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="9"/>
@@ -1773,10 +1773,10 @@
         <v>17</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="9"/>
@@ -1793,10 +1793,10 @@
         <v>17</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="9"/>
@@ -1813,7 +1813,7 @@
         <v>18</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
@@ -1831,7 +1831,7 @@
         <v>19</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
@@ -1869,7 +1869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B12"/>
     </sheetView>
@@ -1903,51 +1903,51 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>25</v>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>26</v>
@@ -1972,13 +1972,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1986,46 +1986,46 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2539,8 +2539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>

--- a/ONCHO/Impact Assessments/Benin/stop/bj_oncho_stop_6_202306_usage_facility.xlsx
+++ b/ONCHO/Impact Assessments/Benin/stop/bj_oncho_stop_6_202306_usage_facility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Benin\stop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\ONCHO\Impact Assessments\Benin\stop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E56CB0-CD20-4E4E-80F5-8AA5D05D4112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67FA977-C57B-45DE-BF83-942CF275119D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="127">
   <si>
     <t>form_title</t>
   </si>
@@ -113,9 +113,6 @@
     <t>GADx</t>
   </si>
   <si>
-    <t>bj_oncho_stop_6_202306_usage_facility</t>
-  </si>
-  <si>
     <t>Appréciation globale</t>
   </si>
   <si>
@@ -362,9 +359,6 @@
     <t>E31. L'interprétation du test est claire et facile</t>
   </si>
   <si>
-    <t>E32. ID de l'énumérateur</t>
-  </si>
-  <si>
     <t>E33. Commentaires supplémentaires</t>
   </si>
   <si>
@@ -386,9 +380,6 @@
     <t>u_interpretation_facile</t>
   </si>
   <si>
-    <t>u_id_enum</t>
-  </si>
-  <si>
     <t>u_notes</t>
   </si>
   <si>
@@ -416,7 +407,10 @@
     <t>Tout à fait d.accord</t>
   </si>
   <si>
-    <t>(2023 Juillet) ONCHO Stop TDM - 6. Questionnaire sur la facilité d'utilisation</t>
+    <t>(2023 Juillet) ONCHO Stop TDM - 6. Questionnaire sur la facilité d'utilisation V2</t>
+  </si>
+  <si>
+    <t>bj_oncho_stop_6_202306_usage_facility_v2</t>
   </si>
 </sst>
 </file>
@@ -556,16 +550,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -576,7 +567,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -585,14 +576,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -607,12 +595,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -632,9 +614,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -926,13 +905,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -952,912 +931,873 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="21" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="B5" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C10" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="14"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="19"/>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="14"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="14"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="23"/>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="11"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="11"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="11"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="11"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="11"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="11"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="19"/>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="11"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="11"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="11"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="11"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="11"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="11"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="19"/>
+    </row>
+    <row r="32" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="11"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="11"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="11"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="11"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="11"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="11"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="16"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="23"/>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="16"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="16"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-    </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="23"/>
-    </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="23"/>
-    </row>
-    <row r="25" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-    </row>
-    <row r="26" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-    </row>
-    <row r="28" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-    </row>
-    <row r="29" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-    </row>
-    <row r="30" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-    </row>
-    <row r="31" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="23"/>
-    </row>
-    <row r="32" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-    </row>
-    <row r="33" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-    </row>
-    <row r="34" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-    </row>
-    <row r="35" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-    </row>
-    <row r="36" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="19" t="s">
+      <c r="B38" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-    </row>
-    <row r="37" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="19" t="s">
+      <c r="C38" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="11"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-    </row>
-    <row r="38" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="19" t="s">
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+    </row>
+    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-    </row>
-    <row r="39" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-    </row>
-    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
     </row>
     <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1882,88 +1822,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="14" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>34</v>
+      <c r="B5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="1"/>
@@ -1971,560 +1911,560 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>49</v>
+      <c r="A8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="A9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="14" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="14" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>48</v>
+      <c r="C12" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="3"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="3"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="3"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="8"/>
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="7"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="8"/>
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="7"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="8"/>
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A100:B145">
@@ -2539,8 +2479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2565,10 +2505,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
